--- a/other resources/data_template.xlsx
+++ b/other resources/data_template.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="data_template" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="2" r:id="rId2"/>
+    <sheet name="products" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_template!$A$1:$L$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">products!$A$1:$L$268</definedName>
+    <definedName name="users_template" localSheetId="1">users!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="users_template" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="1250" sourceFile="C:\Users\Gergo\Dropbox\CODE\SajtBazis\SajtBazis_WinForms\other resources\users_template.csv" decimal="," thousands=" " tab="0" semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="143">
   <si>
     <t>part_number</t>
   </si>
@@ -248,9 +265,6 @@
     <t>Pannonia barsony tomb 1,2kg</t>
   </si>
   <si>
-    <t>Bakony joghurt  Plusz 160g</t>
-  </si>
-  <si>
     <t>Bakony Tejfol 330g</t>
   </si>
   <si>
@@ -272,69 +286,12 @@
     <t>Bakony Zsirszegeny Turo 450g</t>
   </si>
   <si>
-    <t>Sajtmester</t>
-  </si>
-  <si>
     <t>Pilos Zsirszegeny Turo 250g</t>
   </si>
   <si>
     <t>Pilos Zsirszegeny Turo 450g</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Medve</t>
-  </si>
-  <si>
-    <t>Karaván</t>
-  </si>
-  <si>
-    <t>Pannónia</t>
-  </si>
-  <si>
-    <t>Tihany</t>
-  </si>
-  <si>
-    <t>Bakony</t>
-  </si>
-  <si>
-    <t>Pilos</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Private_label</t>
-  </si>
-  <si>
-    <t>Food_service</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>Répcelak</t>
-  </si>
-  <si>
-    <t>Zalaegerszeg</t>
-  </si>
-  <si>
-    <t>Veszprém</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>carton</t>
-  </si>
-  <si>
-    <t>palette</t>
-  </si>
-  <si>
     <t>Sajtmester Kockasajt dobozos 140g</t>
   </si>
   <si>
@@ -347,12 +304,6 @@
     <t>Sajtmester Reszelt Pizza-mix 2kg</t>
   </si>
   <si>
-    <t>Sajtmester Vödrös vaj 1kg</t>
-  </si>
-  <si>
-    <t>Sajtmester Vödrös tejfol 1kg</t>
-  </si>
-  <si>
     <t>Tihany Szendvics Camembert Natur 120g</t>
   </si>
   <si>
@@ -378,6 +329,141 @@
   </si>
   <si>
     <t>Tihany Inyenc Camembert Medvehagymas 120g</t>
+  </si>
+  <si>
+    <t>Sajtmester Vodros vaj 1kg</t>
+  </si>
+  <si>
+    <t>Sajtmester Vodros tejfol 1kg</t>
+  </si>
+  <si>
+    <t>Bakony Joghurt  Plusz 160g</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>adika</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Kiss Adam</t>
+  </si>
+  <si>
+    <t>kiss.adam@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>boditibi</t>
+  </si>
+  <si>
+    <t>Bodocs Tibor</t>
+  </si>
+  <si>
+    <t>bodocs.tibor@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>dombi</t>
+  </si>
+  <si>
+    <t>Dombovari Istvan</t>
+  </si>
+  <si>
+    <t>dombovari.istvan@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>gergo</t>
+  </si>
+  <si>
+    <t>nasi</t>
+  </si>
+  <si>
+    <t>Gergo</t>
+  </si>
+  <si>
+    <t>gergo@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>hadi</t>
+  </si>
+  <si>
+    <t>Hadhazy Laszlo</t>
+  </si>
+  <si>
+    <t>hadhazy.laszlo@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>kap</t>
+  </si>
+  <si>
+    <t>Kovacs Andras Peter</t>
+  </si>
+  <si>
+    <t>kovacs.andras@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>petike</t>
+  </si>
+  <si>
+    <t>Aranyosi Peter</t>
+  </si>
+  <si>
+    <t>aranyosi.peter@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>trabarna</t>
+  </si>
+  <si>
+    <t>Lorant Barnabas</t>
+  </si>
+  <si>
+    <t>lorant.barnabas@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>mester</t>
+  </si>
+  <si>
+    <t>Fabry Sandor</t>
+  </si>
+  <si>
+    <t>mogi</t>
+  </si>
+  <si>
+    <t>datamanager</t>
+  </si>
+  <si>
+    <t>Mogacs Daniel</t>
+  </si>
+  <si>
+    <t>mogacs.daniel@sajtbazis.com</t>
+  </si>
+  <si>
+    <t>badi</t>
+  </si>
+  <si>
+    <t>Badar Sandor</t>
+  </si>
+  <si>
+    <t>badar.sandor@sajtbazis.com</t>
   </si>
 </sst>
 </file>
@@ -940,6 +1026,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="users_template" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1229,9 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4031,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -4068,8 +4156,8 @@
       <c r="C75" s="1">
         <v>0</v>
       </c>
-      <c r="D75" s="1">
-        <v>2</v>
+      <c r="D75" s="3">
+        <v>3</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -4106,8 +4194,8 @@
       <c r="C76" s="1">
         <v>0</v>
       </c>
-      <c r="D76" s="1">
-        <v>2</v>
+      <c r="D76" s="3">
+        <v>3</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -4144,8 +4232,8 @@
       <c r="C77" s="1">
         <v>0</v>
       </c>
-      <c r="D77" s="1">
-        <v>2</v>
+      <c r="D77" s="3">
+        <v>3</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -4182,8 +4270,8 @@
       <c r="C78" s="1">
         <v>0</v>
       </c>
-      <c r="D78" s="1">
-        <v>2</v>
+      <c r="D78" s="3">
+        <v>3</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -4220,8 +4308,8 @@
       <c r="C79" s="1">
         <v>0</v>
       </c>
-      <c r="D79" s="1">
-        <v>2</v>
+      <c r="D79" s="3">
+        <v>3</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -4258,8 +4346,8 @@
       <c r="C80" s="1">
         <v>0</v>
       </c>
-      <c r="D80" s="1">
-        <v>2</v>
+      <c r="D80" s="3">
+        <v>3</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -4296,8 +4384,8 @@
       <c r="C81" s="1">
         <v>0</v>
       </c>
-      <c r="D81" s="1">
-        <v>2</v>
+      <c r="D81" s="3">
+        <v>3</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -4334,8 +4422,8 @@
       <c r="C82" s="1">
         <v>0</v>
       </c>
-      <c r="D82" s="1">
-        <v>2</v>
+      <c r="D82" s="3">
+        <v>3</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -4372,8 +4460,8 @@
       <c r="C83" s="1">
         <v>0</v>
       </c>
-      <c r="D83" s="1">
-        <v>2</v>
+      <c r="D83" s="3">
+        <v>3</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -4410,8 +4498,8 @@
       <c r="C84" s="1">
         <v>0</v>
       </c>
-      <c r="D84" s="1">
-        <v>2</v>
+      <c r="D84" s="3">
+        <v>3</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -4448,8 +4536,8 @@
       <c r="C85" s="1">
         <v>0</v>
       </c>
-      <c r="D85" s="1">
-        <v>2</v>
+      <c r="D85" s="3">
+        <v>3</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -4486,8 +4574,8 @@
       <c r="C86" s="1">
         <v>0</v>
       </c>
-      <c r="D86" s="1">
-        <v>2</v>
+      <c r="D86" s="3">
+        <v>3</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -4524,8 +4612,8 @@
       <c r="C87" s="1">
         <v>0</v>
       </c>
-      <c r="D87" s="1">
-        <v>2</v>
+      <c r="D87" s="3">
+        <v>3</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -4562,8 +4650,8 @@
       <c r="C88" s="1">
         <v>0</v>
       </c>
-      <c r="D88" s="1">
-        <v>2</v>
+      <c r="D88" s="3">
+        <v>3</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -4600,8 +4688,8 @@
       <c r="C89" s="1">
         <v>0</v>
       </c>
-      <c r="D89" s="1">
-        <v>2</v>
+      <c r="D89" s="3">
+        <v>3</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -4638,8 +4726,8 @@
       <c r="C90" s="1">
         <v>0</v>
       </c>
-      <c r="D90" s="1">
-        <v>2</v>
+      <c r="D90" s="3">
+        <v>3</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -4676,8 +4764,8 @@
       <c r="C91" s="1">
         <v>0</v>
       </c>
-      <c r="D91" s="1">
-        <v>2</v>
+      <c r="D91" s="3">
+        <v>3</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -4714,8 +4802,8 @@
       <c r="C92" s="1">
         <v>0</v>
       </c>
-      <c r="D92" s="1">
-        <v>2</v>
+      <c r="D92" s="3">
+        <v>3</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -4752,8 +4840,8 @@
       <c r="C93" s="1">
         <v>0</v>
       </c>
-      <c r="D93" s="1">
-        <v>2</v>
+      <c r="D93" s="3">
+        <v>3</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -4790,8 +4878,8 @@
       <c r="C94" s="1">
         <v>0</v>
       </c>
-      <c r="D94" s="1">
-        <v>2</v>
+      <c r="D94" s="3">
+        <v>3</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -4828,8 +4916,8 @@
       <c r="C95" s="1">
         <v>0</v>
       </c>
-      <c r="D95" s="1">
-        <v>2</v>
+      <c r="D95" s="3">
+        <v>3</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -4866,8 +4954,8 @@
       <c r="C96" s="1">
         <v>0</v>
       </c>
-      <c r="D96" s="1">
-        <v>2</v>
+      <c r="D96" s="3">
+        <v>3</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -4904,8 +4992,8 @@
       <c r="C97" s="1">
         <v>0</v>
       </c>
-      <c r="D97" s="1">
-        <v>2</v>
+      <c r="D97" s="3">
+        <v>3</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -4942,8 +5030,8 @@
       <c r="C98" s="1">
         <v>0</v>
       </c>
-      <c r="D98" s="1">
-        <v>2</v>
+      <c r="D98" s="3">
+        <v>3</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -4980,8 +5068,8 @@
       <c r="C99" s="1">
         <v>0</v>
       </c>
-      <c r="D99" s="1">
-        <v>2</v>
+      <c r="D99" s="3">
+        <v>3</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -5018,8 +5106,8 @@
       <c r="C100" s="1">
         <v>0</v>
       </c>
-      <c r="D100" s="1">
-        <v>2</v>
+      <c r="D100" s="3">
+        <v>3</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -5056,8 +5144,8 @@
       <c r="C101" s="1">
         <v>0</v>
       </c>
-      <c r="D101" s="1">
-        <v>2</v>
+      <c r="D101" s="3">
+        <v>3</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -5094,8 +5182,8 @@
       <c r="C102" s="1">
         <v>0</v>
       </c>
-      <c r="D102" s="1">
-        <v>2</v>
+      <c r="D102" s="3">
+        <v>3</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -8585,10 +8673,10 @@
         <v>400000</v>
       </c>
       <c r="B194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8623,10 +8711,10 @@
         <v>400001</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C195" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D195" s="1">
         <v>0</v>
@@ -8661,10 +8749,10 @@
         <v>400002</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C196" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D196" s="1">
         <v>0</v>
@@ -8699,10 +8787,10 @@
         <v>400100</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C197" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D197" s="1">
         <v>0</v>
@@ -8737,10 +8825,10 @@
         <v>400101</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C198" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
@@ -8775,10 +8863,10 @@
         <v>400102</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C199" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
@@ -8813,10 +8901,10 @@
         <v>400200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C200" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -8851,10 +8939,10 @@
         <v>400201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C201" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D201" s="1">
         <v>0</v>
@@ -8889,10 +8977,10 @@
         <v>400202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C202" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D202" s="1">
         <v>0</v>
@@ -8927,10 +9015,10 @@
         <v>400300</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C203" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D203" s="1">
         <v>0</v>
@@ -8965,10 +9053,10 @@
         <v>400301</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C204" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D204" s="1">
         <v>0</v>
@@ -9003,10 +9091,10 @@
         <v>400302</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C205" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D205" s="1">
         <v>0</v>
@@ -9041,10 +9129,10 @@
         <v>400400</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C206" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D206" s="1">
         <v>0</v>
@@ -9079,10 +9167,10 @@
         <v>400401</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C207" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D207" s="1">
         <v>0</v>
@@ -9117,10 +9205,10 @@
         <v>400402</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C208" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D208" s="1">
         <v>0</v>
@@ -9155,10 +9243,10 @@
         <v>400500</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C209" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D209" s="1">
         <v>0</v>
@@ -9193,10 +9281,10 @@
         <v>400501</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C210" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D210" s="1">
         <v>0</v>
@@ -9231,10 +9319,10 @@
         <v>400502</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C211" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D211" s="1">
         <v>0</v>
@@ -9269,10 +9357,10 @@
         <v>400600</v>
       </c>
       <c r="B212" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C212" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D212" s="1">
         <v>0</v>
@@ -9307,10 +9395,10 @@
         <v>400601</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C213" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213" s="1">
         <v>0</v>
@@ -9345,10 +9433,10 @@
         <v>400602</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C214" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1">
         <v>0</v>
@@ -9383,10 +9471,10 @@
         <v>400700</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C215" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -9421,10 +9509,10 @@
         <v>400701</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C216" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -9459,10 +9547,10 @@
         <v>400702</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C217" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
@@ -9497,7 +9585,7 @@
         <v>500000</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -9535,7 +9623,7 @@
         <v>500001</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C219" s="3">
         <v>3</v>
@@ -9573,7 +9661,7 @@
         <v>500002</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C220" s="3">
         <v>3</v>
@@ -9611,7 +9699,7 @@
         <v>500100</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C221" s="3">
         <v>3</v>
@@ -9649,7 +9737,7 @@
         <v>500101</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C222" s="3">
         <v>3</v>
@@ -9687,7 +9775,7 @@
         <v>500102</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C223" s="3">
         <v>3</v>
@@ -9725,7 +9813,7 @@
         <v>500200</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C224" s="3">
         <v>3</v>
@@ -9763,7 +9851,7 @@
         <v>500201</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C225" s="3">
         <v>3</v>
@@ -9801,7 +9889,7 @@
         <v>500202</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C226" s="3">
         <v>3</v>
@@ -9839,7 +9927,7 @@
         <v>500300</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C227" s="3">
         <v>3</v>
@@ -9877,7 +9965,7 @@
         <v>500301</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C228" s="3">
         <v>3</v>
@@ -9915,7 +10003,7 @@
         <v>500302</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C229" s="3">
         <v>3</v>
@@ -9953,7 +10041,7 @@
         <v>500400</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C230" s="3">
         <v>3</v>
@@ -9991,7 +10079,7 @@
         <v>500401</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C231" s="3">
         <v>3</v>
@@ -10029,7 +10117,7 @@
         <v>500402</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C232" s="3">
         <v>3</v>
@@ -10067,7 +10155,7 @@
         <v>500500</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C233" s="3">
         <v>3</v>
@@ -10105,7 +10193,7 @@
         <v>500501</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C234" s="3">
         <v>3</v>
@@ -10143,7 +10231,7 @@
         <v>500502</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C235" s="3">
         <v>3</v>
@@ -10181,7 +10269,7 @@
         <v>500600</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C236" s="3">
         <v>3</v>
@@ -10219,7 +10307,7 @@
         <v>500601</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C237" s="3">
         <v>3</v>
@@ -10257,7 +10345,7 @@
         <v>500602</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C238" s="3">
         <v>3</v>
@@ -10295,7 +10383,7 @@
         <v>500700</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C239" s="3">
         <v>3</v>
@@ -10333,7 +10421,7 @@
         <v>500701</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C240" s="3">
         <v>3</v>
@@ -10371,7 +10459,7 @@
         <v>500702</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C241" s="3">
         <v>3</v>
@@ -10409,7 +10497,7 @@
         <v>500800</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C242" s="3">
         <v>3</v>
@@ -10447,7 +10535,7 @@
         <v>500801</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C243" s="3">
         <v>3</v>
@@ -10485,7 +10573,7 @@
         <v>500802</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C244" s="3">
         <v>3</v>
@@ -10523,10 +10611,10 @@
         <v>600000</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -10561,10 +10649,10 @@
         <v>600001</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C246" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
@@ -10599,10 +10687,10 @@
         <v>600002</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C247" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -10637,10 +10725,10 @@
         <v>600100</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C248" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -10675,10 +10763,10 @@
         <v>600101</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C249" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
@@ -10713,10 +10801,10 @@
         <v>600102</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C250" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
@@ -10751,10 +10839,10 @@
         <v>700000</v>
       </c>
       <c r="B251" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D251">
         <v>2</v>
@@ -10789,10 +10877,10 @@
         <v>700001</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C252" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D252" s="3">
         <v>2</v>
@@ -10827,10 +10915,10 @@
         <v>700002</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C253" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D253" s="3">
         <v>2</v>
@@ -10865,10 +10953,10 @@
         <v>700100</v>
       </c>
       <c r="B254" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C254" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D254" s="3">
         <v>2</v>
@@ -10903,10 +10991,10 @@
         <v>700101</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C255" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D255" s="3">
         <v>2</v>
@@ -10941,10 +11029,10 @@
         <v>700102</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C256" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D256" s="3">
         <v>2</v>
@@ -10979,10 +11067,10 @@
         <v>700200</v>
       </c>
       <c r="B257" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C257" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D257" s="3">
         <v>2</v>
@@ -11017,10 +11105,10 @@
         <v>700301</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C258" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D258" s="3">
         <v>2</v>
@@ -11055,10 +11143,10 @@
         <v>700302</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C259" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D259" s="3">
         <v>2</v>
@@ -11093,10 +11181,10 @@
         <v>700400</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C260" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D260" s="3">
         <v>2</v>
@@ -11131,10 +11219,10 @@
         <v>700401</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C261" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D261" s="3">
         <v>2</v>
@@ -11169,10 +11257,10 @@
         <v>700402</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C262" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D262" s="3">
         <v>2</v>
@@ -11207,10 +11295,10 @@
         <v>700500</v>
       </c>
       <c r="B263" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C263" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D263" s="3">
         <v>2</v>
@@ -11245,10 +11333,10 @@
         <v>700501</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C264" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D264" s="3">
         <v>2</v>
@@ -11283,10 +11371,10 @@
         <v>700502</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C265" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D265" s="3">
         <v>2</v>
@@ -11321,10 +11409,10 @@
         <v>700600</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C266" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D266" s="3">
         <v>2</v>
@@ -11359,10 +11447,10 @@
         <v>700601</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C267" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D267" s="3">
         <v>2</v>
@@ -11397,10 +11485,10 @@
         <v>700602</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C268" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D268" s="3">
         <v>2</v>
@@ -11438,188 +11526,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="B1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="D1" t="s">
         <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
